--- a/gerber/pickandplace.xlsx
+++ b/gerber/pickandplace.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_PCB-v2.1.4_2024-06" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="PickAndPlace_PCB-v2.1.4_1_2024-" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="227">
   <si>
     <t>Designator</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>R10</t>
+    <t>R5</t>
   </si>
   <si>
     <t>10kΩ</t>
@@ -64,48 +64,39 @@
     <t>R0603</t>
   </si>
   <si>
-    <t>21.844mm</t>
-  </si>
-  <si>
-    <t>-106.299mm</t>
-  </si>
-  <si>
-    <t>-105.546mm</t>
+    <t>38.481mm</t>
+  </si>
+  <si>
+    <t>-105.664mm</t>
+  </si>
+  <si>
+    <t>-106.417mm</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>100kΩ</t>
+  </si>
+  <si>
+    <t>30.099mm</t>
+  </si>
+  <si>
+    <t>-106.172mm</t>
+  </si>
+  <si>
+    <t>-105.419mm</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>23.368mm</t>
-  </si>
-  <si>
-    <t>-104.648mm</t>
-  </si>
-  <si>
-    <t>-105.401mm</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>100kΩ</t>
-  </si>
-  <si>
-    <t>30.099mm</t>
-  </si>
-  <si>
-    <t>-106.172mm</t>
-  </si>
-  <si>
-    <t>-105.419mm</t>
-  </si>
-  <si>
     <t>THERMISTOR</t>
   </si>
   <si>
@@ -175,9 +166,6 @@
     <t>-44.729mm</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
@@ -355,16 +343,13 @@
     <t>C5</t>
   </si>
   <si>
-    <t>34.163mm</t>
-  </si>
-  <si>
-    <t>-105.537mm</t>
-  </si>
-  <si>
-    <t>34.658mm</t>
-  </si>
-  <si>
-    <t>-105.042mm</t>
+    <t>36.703mm</t>
+  </si>
+  <si>
+    <t>-107.188mm</t>
+  </si>
+  <si>
+    <t>-107.888mm</t>
   </si>
   <si>
     <t>C3</t>
@@ -391,6 +376,300 @@
     <t>-62.546mm</t>
   </si>
   <si>
+    <t>DISPLAY</t>
+  </si>
+  <si>
+    <t>AFA07-S14FCC-00</t>
+  </si>
+  <si>
+    <t>FPC-SMD_P1.00-14P_LCS-XJ-H2.5</t>
+  </si>
+  <si>
+    <t>47.879mm</t>
+  </si>
+  <si>
+    <t>-34.671mm</t>
+  </si>
+  <si>
+    <t>41.379mm</t>
+  </si>
+  <si>
+    <t>-35.804mm</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>FDN304P</t>
+  </si>
+  <si>
+    <t>SOT-23-3_L2.9-W1.6-P1.90-LS2.8-BR</t>
+  </si>
+  <si>
+    <t>-88.519mm</t>
+  </si>
+  <si>
+    <t>57.084mm</t>
+  </si>
+  <si>
+    <t>-87.284mm</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>55.88mm</t>
+  </si>
+  <si>
+    <t>-45.085mm</t>
+  </si>
+  <si>
+    <t>55.127mm</t>
+  </si>
+  <si>
+    <t>LD2410</t>
+  </si>
+  <si>
+    <t>HLK-LD2410B-P</t>
+  </si>
+  <si>
+    <t>newld2410</t>
+  </si>
+  <si>
+    <t>33.935mm</t>
+  </si>
+  <si>
+    <t>-88.027mm</t>
+  </si>
+  <si>
+    <t>16.51mm</t>
+  </si>
+  <si>
+    <t>-91.567mm</t>
+  </si>
+  <si>
+    <t>50.343mm</t>
+  </si>
+  <si>
+    <t>-85.507mm</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>ESP32-S3-WROOM-1-N16R8</t>
+  </si>
+  <si>
+    <t>wirelm-smd_esp32-s3-wroom-1</t>
+  </si>
+  <si>
+    <t>50.546mm</t>
+  </si>
+  <si>
+    <t>-65.024mm</t>
+  </si>
+  <si>
+    <t>59.441mm</t>
+  </si>
+  <si>
+    <t>-56.274mm</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>ICS-43434</t>
+  </si>
+  <si>
+    <t>ics-43434</t>
+  </si>
+  <si>
+    <t>33.401mm</t>
+  </si>
+  <si>
+    <t>-109.474mm</t>
+  </si>
+  <si>
+    <t>32.501mm</t>
+  </si>
+  <si>
+    <t>-108.188mm</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>0603WAF4700T5E</t>
+  </si>
+  <si>
+    <t>52.451mm</t>
+  </si>
+  <si>
+    <t>-39.116mm</t>
+  </si>
+  <si>
+    <t>-39.869mm</t>
+  </si>
+  <si>
+    <t>470Ω</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>56.896mm</t>
+  </si>
+  <si>
+    <t>-83.058mm</t>
+  </si>
+  <si>
+    <t>57.846mm</t>
+  </si>
+  <si>
+    <t>-82.058mm</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>59.182mm</t>
+  </si>
+  <si>
+    <t>-82.804mm</t>
+  </si>
+  <si>
+    <t>-83.557mm</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>57.023mm</t>
+  </si>
+  <si>
+    <t>-80.264mm</t>
+  </si>
+  <si>
+    <t>56.27mm</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>0603WAJ0121T5E</t>
+  </si>
+  <si>
+    <t>50.419mm</t>
+  </si>
+  <si>
+    <t>-43.18mm</t>
+  </si>
+  <si>
+    <t>-43.933mm</t>
+  </si>
+  <si>
+    <t>120Ω</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>S8050_C7603172</t>
+  </si>
+  <si>
+    <t>54.229mm</t>
+  </si>
+  <si>
+    <t>-41.656mm</t>
+  </si>
+  <si>
+    <t>53.279mm</t>
+  </si>
+  <si>
+    <t>-42.891mm</t>
+  </si>
+  <si>
+    <t>S8050</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>CL21A226MOQNNNE</t>
+  </si>
+  <si>
+    <t>C0805</t>
+  </si>
+  <si>
+    <t>57.912mm</t>
+  </si>
+  <si>
+    <t>-50.673mm</t>
+  </si>
+  <si>
+    <t>56.882mm</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>29.083mm</t>
+  </si>
+  <si>
+    <t>-66.054mm</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>28.956mm</t>
+  </si>
+  <si>
+    <t>-58.293mm</t>
+  </si>
+  <si>
+    <t>-57.263mm</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>bc075-10-a-l-a</t>
+  </si>
+  <si>
+    <t>bc075-10-A-L-A</t>
+  </si>
+  <si>
+    <t>21.293mm</t>
+  </si>
+  <si>
+    <t>-54.694mm</t>
+  </si>
+  <si>
+    <t>26.543mm</t>
+  </si>
+  <si>
+    <t>-53.594mm</t>
+  </si>
+  <si>
+    <t>25.793mm</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>12.065mm</t>
+  </si>
+  <si>
+    <t>-108.331mm</t>
+  </si>
+  <si>
+    <t>-107.578mm</t>
+  </si>
+  <si>
     <t>H1</t>
   </si>
   <si>
@@ -412,304 +691,7 @@
     <t>-74.64mm</t>
   </si>
   <si>
-    <t>DISPLAY</t>
-  </si>
-  <si>
-    <t>AFA07-S14FCC-00</t>
-  </si>
-  <si>
-    <t>FPC-SMD_P1.00-14P_LCS-XJ-H2.5</t>
-  </si>
-  <si>
-    <t>47.879mm</t>
-  </si>
-  <si>
-    <t>-34.671mm</t>
-  </si>
-  <si>
-    <t>41.379mm</t>
-  </si>
-  <si>
-    <t>-35.804mm</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>FDN304P</t>
-  </si>
-  <si>
-    <t>SOT-23-3_L2.9-W1.6-P1.90-LS2.8-BR</t>
-  </si>
-  <si>
-    <t>-88.519mm</t>
-  </si>
-  <si>
-    <t>57.084mm</t>
-  </si>
-  <si>
-    <t>-87.284mm</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>55.88mm</t>
-  </si>
-  <si>
-    <t>-45.085mm</t>
-  </si>
-  <si>
-    <t>55.127mm</t>
-  </si>
-  <si>
-    <t>LD2410</t>
-  </si>
-  <si>
-    <t>HLK-LD2410B-P</t>
-  </si>
-  <si>
-    <t>newld2410</t>
-  </si>
-  <si>
-    <t>33.935mm</t>
-  </si>
-  <si>
-    <t>-88.027mm</t>
-  </si>
-  <si>
-    <t>16.51mm</t>
-  </si>
-  <si>
-    <t>-91.567mm</t>
-  </si>
-  <si>
-    <t>50.343mm</t>
-  </si>
-  <si>
-    <t>-85.507mm</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>ESP32-S3-WROOM-1-N16R8</t>
-  </si>
-  <si>
-    <t>wirelm-smd_esp32-s3-wroom-1</t>
-  </si>
-  <si>
-    <t>50.546mm</t>
-  </si>
-  <si>
-    <t>-65.024mm</t>
-  </si>
-  <si>
-    <t>59.441mm</t>
-  </si>
-  <si>
-    <t>-56.274mm</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>ICS-43434</t>
-  </si>
-  <si>
-    <t>ics-43434</t>
-  </si>
-  <si>
-    <t>33.401mm</t>
-  </si>
-  <si>
-    <t>-109.474mm</t>
-  </si>
-  <si>
-    <t>32.501mm</t>
-  </si>
-  <si>
-    <t>-108.188mm</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>0603WAF4700T5E</t>
-  </si>
-  <si>
-    <t>52.451mm</t>
-  </si>
-  <si>
-    <t>-39.116mm</t>
-  </si>
-  <si>
-    <t>-39.869mm</t>
-  </si>
-  <si>
-    <t>470Ω</t>
-  </si>
-  <si>
-    <t>Q7</t>
-  </si>
-  <si>
-    <t>56.896mm</t>
-  </si>
-  <si>
-    <t>-83.058mm</t>
-  </si>
-  <si>
-    <t>57.846mm</t>
-  </si>
-  <si>
-    <t>-82.058mm</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>59.055mm</t>
-  </si>
-  <si>
-    <t>-82.804mm</t>
-  </si>
-  <si>
-    <t>-83.557mm</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>57.023mm</t>
-  </si>
-  <si>
-    <t>-80.264mm</t>
-  </si>
-  <si>
-    <t>56.27mm</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>0603WAJ0121T5E</t>
-  </si>
-  <si>
-    <t>50.419mm</t>
-  </si>
-  <si>
-    <t>-43.18mm</t>
-  </si>
-  <si>
-    <t>-43.933mm</t>
-  </si>
-  <si>
-    <t>120Ω</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>S8050_C7603172</t>
-  </si>
-  <si>
-    <t>54.229mm</t>
-  </si>
-  <si>
-    <t>-41.656mm</t>
-  </si>
-  <si>
-    <t>53.279mm</t>
-  </si>
-  <si>
-    <t>-42.891mm</t>
-  </si>
-  <si>
-    <t>S8050</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>CL21A226MOQNNNE</t>
-  </si>
-  <si>
-    <t>C0805</t>
-  </si>
-  <si>
-    <t>57.912mm</t>
-  </si>
-  <si>
-    <t>-50.673mm</t>
-  </si>
-  <si>
-    <t>56.882mm</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>0603WAF2002T5E</t>
-  </si>
-  <si>
-    <t>11.43mm</t>
-  </si>
-  <si>
-    <t>-107.823mm</t>
-  </si>
-  <si>
-    <t>10.677mm</t>
-  </si>
-  <si>
-    <t>20kΩ</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>29.083mm</t>
-  </si>
-  <si>
-    <t>-66.054mm</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>28.956mm</t>
-  </si>
-  <si>
-    <t>-58.293mm</t>
-  </si>
-  <si>
-    <t>-57.263mm</t>
-  </si>
-  <si>
-    <t>U10</t>
-  </si>
-  <si>
-    <t>bc075-10-a-l-a</t>
-  </si>
-  <si>
-    <t>bc075-10-A-L-A</t>
-  </si>
-  <si>
-    <t>21.293mm</t>
-  </si>
-  <si>
-    <t>-54.694mm</t>
-  </si>
-  <si>
-    <t>26.543mm</t>
-  </si>
-  <si>
-    <t>-53.594mm</t>
-  </si>
-  <si>
-    <t>25.793mm</t>
+    <t>Molex 87759-7648</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -1174,7 +1156,7 @@
         <v>20</v>
       </c>
       <c r="L2">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M2" t="s">
         <v>21</v>
@@ -1188,166 +1170,166 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
       <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L4">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L5">
         <v>180</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
         <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L6">
         <v>180</v>
@@ -1356,7 +1338,7 @@
         <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1364,166 +1346,166 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s">
         <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7">
-        <v>180</v>
-      </c>
-      <c r="M7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>270</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
         <v>52</v>
-      </c>
-      <c r="I8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>90</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" t="s">
         <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9">
-        <v>270</v>
-      </c>
-      <c r="M9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
         <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L10">
         <v>90</v>
@@ -1532,15 +1514,15 @@
         <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -1549,25 +1531,25 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
         <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J11">
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L11">
         <v>90</v>
@@ -1576,188 +1558,188 @@
         <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
         <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J12">
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L12">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M12" t="s">
         <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s">
         <v>78</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13">
-        <v>180</v>
-      </c>
-      <c r="M13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>270</v>
+      </c>
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" t="s">
         <v>85</v>
-      </c>
-      <c r="F14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-      <c r="K14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
         <v>91</v>
       </c>
       <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
         <v>92</v>
       </c>
-      <c r="H15" t="s">
-        <v>91</v>
-      </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L15">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1766,31 +1748,31 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s">
         <v>95</v>
       </c>
-      <c r="E16" t="s">
-        <v>79</v>
-      </c>
       <c r="F16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" t="s">
         <v>95</v>
       </c>
-      <c r="G16" t="s">
-        <v>79</v>
-      </c>
       <c r="H16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" t="s">
         <v>96</v>
-      </c>
-      <c r="I16" t="s">
-        <v>79</v>
       </c>
       <c r="J16">
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M16" t="s">
         <v>21</v>
@@ -1804,10 +1786,10 @@
         <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
         <v>98</v>
@@ -1822,25 +1804,25 @@
         <v>99</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J17">
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L17">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s">
         <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1848,10 +1830,10 @@
         <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>102</v>
@@ -1875,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L18">
         <v>180</v>
@@ -1884,7 +1866,7 @@
         <v>21</v>
       </c>
       <c r="N18" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1892,10 +1874,10 @@
         <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
         <v>106</v>
@@ -1910,25 +1892,25 @@
         <v>107</v>
       </c>
       <c r="H19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" t="s">
         <v>108</v>
-      </c>
-      <c r="I19" t="s">
-        <v>107</v>
       </c>
       <c r="J19">
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L19">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M19" t="s">
         <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1936,10 +1918,10 @@
         <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
         <v>110</v>
@@ -1963,16 +1945,16 @@
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L20">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M20" t="s">
         <v>21</v>
       </c>
       <c r="N20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1980,25 +1962,25 @@
         <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
         <v>115</v>
       </c>
-      <c r="F21" t="s">
-        <v>114</v>
-      </c>
       <c r="G21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" t="s">
         <v>115</v>
-      </c>
-      <c r="H21" t="s">
-        <v>116</v>
       </c>
       <c r="I21" t="s">
         <v>117</v>
@@ -2007,16 +1989,16 @@
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L21">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="M21" t="s">
         <v>21</v>
       </c>
       <c r="N21" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2024,166 +2006,166 @@
         <v>118</v>
       </c>
       <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" t="s">
         <v>119</v>
       </c>
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" t="s">
         <v>120</v>
-      </c>
-      <c r="E22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" t="s">
-        <v>121</v>
-      </c>
-      <c r="H22" t="s">
-        <v>120</v>
-      </c>
-      <c r="I22" t="s">
-        <v>122</v>
       </c>
       <c r="J22">
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L22">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M22" t="s">
         <v>21</v>
       </c>
       <c r="N22" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" t="s">
         <v>123</v>
       </c>
-      <c r="B23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" t="s">
         <v>124</v>
       </c>
-      <c r="F23" t="s">
-        <v>120</v>
-      </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H23" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L23">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M23" t="s">
         <v>21</v>
       </c>
       <c r="N23" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" t="s">
+        <v>133</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>90</v>
+      </c>
+      <c r="M24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" t="s">
         <v>129</v>
-      </c>
-      <c r="E24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" t="s">
-        <v>131</v>
-      </c>
-      <c r="I24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J24">
-        <v>8</v>
-      </c>
-      <c r="K24" t="s">
-        <v>54</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
         <v>135</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>136</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" t="s">
         <v>137</v>
       </c>
-      <c r="F25" t="s">
+      <c r="I25" t="s">
         <v>136</v>
       </c>
-      <c r="G25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H25" t="s">
-        <v>138</v>
-      </c>
-      <c r="I25" t="s">
-        <v>139</v>
-      </c>
       <c r="J25">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2192,262 +2174,262 @@
         <v>21</v>
       </c>
       <c r="N25" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
         <v>140</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>141</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>142</v>
       </c>
-      <c r="D26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>143</v>
       </c>
-      <c r="F26" t="s">
-        <v>106</v>
-      </c>
       <c r="G26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L26">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" t="s">
+        <v>153</v>
+      </c>
+      <c r="J27">
+        <v>49</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27">
+        <v>270</v>
+      </c>
+      <c r="M27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" t="s">
         <v>148</v>
-      </c>
-      <c r="F27" t="s">
-        <v>147</v>
-      </c>
-      <c r="G27" t="s">
-        <v>148</v>
-      </c>
-      <c r="H27" t="s">
-        <v>149</v>
-      </c>
-      <c r="I27" t="s">
-        <v>148</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27" t="s">
-        <v>54</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" t="s">
+        <v>159</v>
+      </c>
+      <c r="I28" t="s">
+        <v>160</v>
+      </c>
+      <c r="J28">
+        <v>9</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28">
+        <v>270</v>
+      </c>
+      <c r="M28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" t="s">
         <v>155</v>
-      </c>
-      <c r="G28" t="s">
-        <v>156</v>
-      </c>
-      <c r="H28" t="s">
-        <v>157</v>
-      </c>
-      <c r="I28" t="s">
-        <v>158</v>
-      </c>
-      <c r="J28">
-        <v>13</v>
-      </c>
-      <c r="K28" t="s">
-        <v>54</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28" t="s">
-        <v>37</v>
-      </c>
-      <c r="N28" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" t="s">
         <v>163</v>
       </c>
-      <c r="F29" t="s">
-        <v>162</v>
-      </c>
       <c r="G29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" t="s">
         <v>163</v>
-      </c>
-      <c r="H29" t="s">
-        <v>164</v>
       </c>
       <c r="I29" t="s">
         <v>165</v>
       </c>
       <c r="J29">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L29">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M29" t="s">
         <v>21</v>
       </c>
       <c r="N29" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
         <v>168</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>169</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" t="s">
+        <v>169</v>
+      </c>
+      <c r="H30" t="s">
         <v>170</v>
       </c>
-      <c r="F30" t="s">
-        <v>169</v>
-      </c>
-      <c r="G30" t="s">
-        <v>170</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>171</v>
       </c>
-      <c r="I30" t="s">
-        <v>172</v>
-      </c>
       <c r="J30">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L30">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M30" t="s">
         <v>21</v>
       </c>
       <c r="N30" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B31" t="s">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
       </c>
       <c r="D31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31" t="s">
         <v>175</v>
-      </c>
-      <c r="E31" t="s">
-        <v>176</v>
-      </c>
-      <c r="F31" t="s">
-        <v>175</v>
-      </c>
-      <c r="G31" t="s">
-        <v>176</v>
-      </c>
-      <c r="H31" t="s">
-        <v>175</v>
-      </c>
-      <c r="I31" t="s">
-        <v>177</v>
       </c>
       <c r="J31">
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L31">
         <v>90</v>
@@ -2456,86 +2438,86 @@
         <v>21</v>
       </c>
       <c r="N31" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" t="s">
+        <v>178</v>
+      </c>
+      <c r="H32" t="s">
         <v>179</v>
       </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" t="s">
-        <v>180</v>
-      </c>
-      <c r="E32" t="s">
-        <v>181</v>
-      </c>
-      <c r="F32" t="s">
-        <v>180</v>
-      </c>
-      <c r="G32" t="s">
-        <v>181</v>
-      </c>
-      <c r="H32" t="s">
-        <v>182</v>
-      </c>
       <c r="I32" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L32">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M32" t="s">
         <v>21</v>
       </c>
       <c r="N32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F33" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H33" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J33">
         <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L33">
         <v>90</v>
@@ -2544,282 +2526,282 @@
         <v>21</v>
       </c>
       <c r="N33" t="s">
-        <v>15</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" t="s">
         <v>188</v>
       </c>
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>189</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
+        <v>188</v>
+      </c>
+      <c r="G34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H34" t="s">
         <v>190</v>
       </c>
-      <c r="F34" t="s">
-        <v>189</v>
-      </c>
-      <c r="G34" t="s">
-        <v>190</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>191</v>
       </c>
-      <c r="I34" t="s">
-        <v>190</v>
-      </c>
       <c r="J34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K34" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s">
         <v>21</v>
       </c>
       <c r="N34" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="D35" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F35" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H35" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J35">
         <v>2</v>
       </c>
       <c r="K35" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L35">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M35" t="s">
         <v>21</v>
       </c>
       <c r="N35" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" t="s">
+        <v>201</v>
+      </c>
+      <c r="G36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H36" t="s">
+        <v>201</v>
+      </c>
+      <c r="I36" t="s">
+        <v>202</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36">
+        <v>90</v>
+      </c>
+      <c r="M36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" t="s">
         <v>199</v>
-      </c>
-      <c r="C36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" t="s">
-        <v>200</v>
-      </c>
-      <c r="E36" t="s">
-        <v>201</v>
-      </c>
-      <c r="F36" t="s">
-        <v>200</v>
-      </c>
-      <c r="G36" t="s">
-        <v>201</v>
-      </c>
-      <c r="H36" t="s">
-        <v>202</v>
-      </c>
-      <c r="I36" t="s">
-        <v>203</v>
-      </c>
-      <c r="J36">
-        <v>3</v>
-      </c>
-      <c r="K36" t="s">
-        <v>54</v>
-      </c>
-      <c r="L36">
-        <v>270</v>
-      </c>
-      <c r="M36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" t="s">
         <v>205</v>
       </c>
-      <c r="B37" t="s">
+      <c r="F37" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" t="s">
+        <v>204</v>
+      </c>
+      <c r="I37" t="s">
         <v>206</v>
-      </c>
-      <c r="C37" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" t="s">
-        <v>208</v>
-      </c>
-      <c r="E37" t="s">
-        <v>209</v>
-      </c>
-      <c r="F37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G37" t="s">
-        <v>209</v>
-      </c>
-      <c r="H37" t="s">
-        <v>210</v>
-      </c>
-      <c r="I37" t="s">
-        <v>209</v>
       </c>
       <c r="J37">
         <v>2</v>
       </c>
       <c r="K37" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M37" t="s">
         <v>21</v>
       </c>
       <c r="N37" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" t="s">
         <v>212</v>
       </c>
-      <c r="B38" t="s">
+      <c r="G38" t="s">
         <v>213</v>
       </c>
-      <c r="C38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="H38" t="s">
         <v>214</v>
       </c>
-      <c r="E38" t="s">
-        <v>215</v>
-      </c>
-      <c r="F38" t="s">
-        <v>214</v>
-      </c>
-      <c r="G38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H38" t="s">
-        <v>216</v>
-      </c>
       <c r="I38" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K38" t="s">
         <v>20</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M38" t="s">
         <v>21</v>
       </c>
       <c r="N38" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>215</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39" t="s">
+        <v>217</v>
+      </c>
+      <c r="F39" t="s">
+        <v>216</v>
+      </c>
+      <c r="G39" t="s">
+        <v>217</v>
+      </c>
+      <c r="H39" t="s">
+        <v>216</v>
+      </c>
+      <c r="I39" t="s">
         <v>218</v>
-      </c>
-      <c r="B39" t="s">
-        <v>206</v>
-      </c>
-      <c r="C39" t="s">
-        <v>207</v>
-      </c>
-      <c r="D39" t="s">
-        <v>219</v>
-      </c>
-      <c r="E39" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" t="s">
-        <v>219</v>
-      </c>
-      <c r="G39" t="s">
-        <v>163</v>
-      </c>
-      <c r="H39" t="s">
-        <v>219</v>
-      </c>
-      <c r="I39" t="s">
-        <v>220</v>
       </c>
       <c r="J39">
         <v>2</v>
       </c>
       <c r="K39" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="L39">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M39" t="s">
         <v>21</v>
       </c>
       <c r="N39" t="s">
-        <v>211</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" t="s">
         <v>221</v>
-      </c>
-      <c r="B40" t="s">
-        <v>206</v>
-      </c>
-      <c r="C40" t="s">
-        <v>207</v>
       </c>
       <c r="D40" t="s">
         <v>222</v>
@@ -2834,68 +2816,24 @@
         <v>223</v>
       </c>
       <c r="H40" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I40" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K40" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L40">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M40" t="s">
         <v>21</v>
       </c>
       <c r="N40" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>225</v>
-      </c>
-      <c r="B41" t="s">
-        <v>226</v>
-      </c>
-      <c r="C41" t="s">
-        <v>227</v>
-      </c>
-      <c r="D41" t="s">
-        <v>228</v>
-      </c>
-      <c r="E41" t="s">
-        <v>229</v>
-      </c>
-      <c r="F41" t="s">
-        <v>230</v>
-      </c>
-      <c r="G41" t="s">
-        <v>231</v>
-      </c>
-      <c r="H41" t="s">
-        <v>232</v>
-      </c>
-      <c r="I41" t="s">
-        <v>229</v>
-      </c>
-      <c r="J41">
-        <v>10</v>
-      </c>
-      <c r="K41" t="s">
-        <v>54</v>
-      </c>
-      <c r="L41">
-        <v>180</v>
-      </c>
-      <c r="M41" t="s">
-        <v>21</v>
-      </c>
-      <c r="N41" t="s">
         <v>226</v>
       </c>
     </row>
